--- a/SCBAA/2020/Region 4B.xlsx
+++ b/SCBAA/2020/Region 4B.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\2020\Region IV-B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEFF180-EFAB-42D6-9854-68DE627382A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8558EA0-000F-4381-9273-66F99300ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="705" windowWidth="17805" windowHeight="12930" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="14625" windowHeight="12540" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Calapan" sheetId="1" r:id="rId1"/>
-    <sheet name="Puerto Prinsesa" sheetId="2" r:id="rId2"/>
+    <sheet name="Puerto Princesa" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -505,6 +512,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -517,7 +525,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -856,54 +863,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -917,22 +924,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="36" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -2037,7 +2044,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E105" sqref="E105"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2049,54 +2056,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -2110,22 +2117,22 @@
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="36" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -3006,7 +3013,7 @@
       <c r="D92" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E92" s="40">
+      <c r="E92" s="36">
         <f>SUM(E90:E91)</f>
         <v>0</v>
       </c>

--- a/SCBAA/2020/Region 4B.xlsx
+++ b/SCBAA/2020/Region 4B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8558EA0-000F-4381-9273-66F99300ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED77C4F-6227-47C9-979E-43F22BC06940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="14625" windowHeight="12540" activeTab="1" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Calapan" sheetId="1" r:id="rId1"/>
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780D6844-13E7-49C6-B6A2-0DA36920325C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="E85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,6 @@
         <v>24</v>
       </c>
       <c r="E11" s="35">
-        <f>24676769.7+16140913.22</f>
         <v>40817682.920000002</v>
       </c>
     </row>
@@ -1009,7 +1008,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>170000968.10999998</v>
       </c>
     </row>
@@ -1063,7 +1061,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>65030471.110000007</v>
       </c>
     </row>
@@ -1254,7 +1251,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1116765902.3800001</v>
       </c>
     </row>
@@ -1353,7 +1349,6 @@
         <v>12</v>
       </c>
       <c r="E47" s="35">
-        <f>33374793.79+7257519.19</f>
         <v>40632312.979999997</v>
       </c>
     </row>
@@ -1365,7 +1360,6 @@
         <v>13</v>
       </c>
       <c r="E48" s="35">
-        <f>1610359+9064509.45</f>
         <v>10674868.449999999</v>
       </c>
     </row>
@@ -1833,7 +1827,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>923525108.53000021</v>
       </c>
     </row>
@@ -1891,7 +1884,6 @@
         <v>13</v>
       </c>
       <c r="E98" s="33">
-        <f>1762182+469215.15</f>
         <v>2231397.15</v>
       </c>
     </row>
@@ -2009,7 +2001,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>40334543.640000001</v>
       </c>
     </row>
@@ -2021,7 +2012,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>963859652.1700002</v>
       </c>
     </row>
@@ -2043,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03AE607-41CB-4E2F-A5CB-921E88B841BE}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,7 +2191,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="19">
-        <f>SUM(E11:E13)</f>
         <v>544693096.73000002</v>
       </c>
     </row>
@@ -2255,7 +2244,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19">
-        <f>SUM(E16:E18)</f>
         <v>201073676.14000002</v>
       </c>
     </row>
@@ -2446,7 +2434,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="19">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>3757496557.3599997</v>
       </c>
     </row>
@@ -3014,7 +3001,6 @@
         <v>51</v>
       </c>
       <c r="E92" s="36">
-        <f>SUM(E90:E91)</f>
         <v>0</v>
       </c>
     </row>
@@ -3024,7 +3010,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="30">
-        <f>SUM(E41:E92)</f>
         <v>2226682276.6800003</v>
       </c>
     </row>
@@ -3199,7 +3184,6 @@
         <v>59</v>
       </c>
       <c r="E111" s="32">
-        <f>SUM(E95:E110)</f>
         <v>952648635.39999998</v>
       </c>
     </row>
@@ -3211,7 +3195,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="31">
-        <f>SUM(E93,E111)</f>
         <v>3179330912.0800004</v>
       </c>
     </row>
